--- a/outputs/freshwater_s2-analysis/2023-2024/script_ran_on_2026-02-04/summary_statistics.xlsx
+++ b/outputs/freshwater_s2-analysis/2023-2024/script_ran_on_2026-02-04/summary_statistics.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ross Lake</t>
+          <t>Aplins Weir</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -445,13 +445,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0.015</v>
+        <v>0.025</v>
       </c>
       <c r="F2">
         <v>0.02</v>
@@ -463,7 +463,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aplins Weir</t>
+          <t>Gleesons Weir</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="F3">
         <v>0.02</v>
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gleesons Weir</t>
+          <t>Blacks Weir</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -517,7 +517,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Blacks Weir</t>
+          <t>Bohle Mid-Field</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -526,16 +526,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5">
-        <v>0.015</v>
+        <v>4.399</v>
       </c>
       <c r="F5">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="G5">
         <v>0.38</v>
@@ -544,7 +544,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bohle Mid-Field</t>
+          <t>Bohle Far-Field</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -559,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>4.399</v>
+        <v>0.257</v>
       </c>
       <c r="F6">
         <v>0.08</v>
@@ -571,7 +571,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bohle Far-Field</t>
+          <t>Black River</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -580,25 +580,25 @@
         </is>
       </c>
       <c r="C7">
+        <v>74</v>
+      </c>
+      <c r="D7">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
       <c r="E7">
-        <v>0.257</v>
+        <v>0.021</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="G7">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Black River</t>
+          <t>Althaus Creek</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0.021</v>
+        <v>0.012</v>
       </c>
       <c r="F8">
         <v>0.02</v>
@@ -625,7 +625,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Althaus Creek</t>
+          <t>Bluewater Creek</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>0.012</v>
+        <v>0.027</v>
       </c>
       <c r="F9">
         <v>0.02</v>
@@ -652,7 +652,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bluewater Creek</t>
+          <t>Sleeper Log Creek</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -667,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>0.027</v>
+        <v>0.004</v>
       </c>
       <c r="F10">
         <v>0.02</v>
@@ -679,7 +679,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sleeper Log Creek</t>
+          <t>Leichhardt Creek</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -694,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="F11">
         <v>0.02</v>
@@ -706,7 +706,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Leichhardt Creek</t>
+          <t>Saltwater Creek</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="F12">
         <v>0.02</v>
@@ -733,7 +733,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saltwater Creek</t>
+          <t>Rollingstone Creek</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
       <c r="F13">
         <v>0.02</v>
@@ -760,7 +760,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rollingstone Creek</t>
+          <t>Ollera Creek</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>0.016</v>
+        <v>0.009</v>
       </c>
       <c r="F14">
         <v>0.02</v>
@@ -787,7 +787,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ollera Creek</t>
+          <t>Crystal Creek</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>0.009</v>
+        <v>0.013</v>
       </c>
       <c r="F15">
         <v>0.02</v>
@@ -814,61 +814,61 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Crystal Creek</t>
+          <t>Ross Lake</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="F16">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G16">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Paluma Lake</t>
+          <t>Blacks Weir</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>0.032</v>
+        <v>0.01</v>
       </c>
       <c r="F17">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G17">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ross Lake</t>
+          <t>Bohle Mid-Field</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -877,16 +877,16 @@
         </is>
       </c>
       <c r="C18">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>11</v>
       </c>
       <c r="E18">
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G18">
         <v>0.46</v>
@@ -895,7 +895,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Blacks Weir</t>
+          <t>Bohle Far-Field</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>11</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>2.3</v>
       </c>
       <c r="F19">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G19">
         <v>0.46</v>
@@ -922,7 +922,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bohle Mid-Field</t>
+          <t>Black River</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -931,25 +931,25 @@
         </is>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>0.023</v>
       </c>
       <c r="F20">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G20">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bohle Far-Field</t>
+          <t>Althaus Creek</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -958,25 +958,25 @@
         </is>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>2.3</v>
+        <v>0.023</v>
       </c>
       <c r="F21">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G21">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Black River</t>
+          <t>Bluewater Creek</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -991,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>0.023</v>
+        <v>0.013</v>
       </c>
       <c r="F22">
         <v>0.02</v>
@@ -1003,7 +1003,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Althaus Creek</t>
+          <t>Sleeper Log Creek</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="F23">
         <v>0.02</v>
@@ -1030,7 +1030,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bluewater Creek</t>
+          <t>Leichhardt Creek</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1045,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="F24">
         <v>0.02</v>
@@ -1057,7 +1057,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sleeper Log Creek</t>
+          <t>Saltwater Creek</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
         <v>0.02</v>
@@ -1084,7 +1084,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Leichhardt Creek</t>
+          <t>Rollingstone Creek</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1099,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="F26">
         <v>0.02</v>
@@ -1111,7 +1111,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Saltwater Creek</t>
+          <t>Ollera Creek</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1120,13 +1120,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="F27">
         <v>0.02</v>
@@ -1138,7 +1138,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rollingstone Creek</t>
+          <t>Crystal Creek</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="F28">
         <v>0.02</v>
@@ -1165,7 +1165,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ollera Creek</t>
+          <t>Paluma Lake</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1174,79 +1174,79 @@
         </is>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G29">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Crystal Creek</t>
+          <t>Aplins Weir</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FRP</t>
         </is>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="F30">
         <v>0.02</v>
       </c>
-      <c r="G30">
-        <v>0.03</v>
+      <c r="G30" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paluma Lake</t>
+          <t>Black River</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FRP</t>
         </is>
       </c>
       <c r="C31">
+        <v>74</v>
+      </c>
+      <c r="D31">
         <v>12</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
       </c>
       <c r="E31">
         <v>0.01</v>
       </c>
       <c r="F31">
-        <v>0.03</v>
-      </c>
-      <c r="G31">
-        <v>0.06</v>
+        <v>0.02</v>
+      </c>
+      <c r="G31" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aplins Weir</t>
+          <t>Althaus Creek</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="F32">
         <v>0.02</v>
@@ -1273,7 +1273,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Black River</t>
+          <t>Bluewater Creek</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C33">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="F33">
         <v>0.02</v>
@@ -1300,7 +1300,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Althaus Creek</t>
+          <t>Sleeper Log Creek</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="F34">
         <v>0.02</v>
@@ -1327,7 +1327,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bluewater Creek</t>
+          <t>Leichhardt Creek</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1345,7 +1345,7 @@
         <v>0.003</v>
       </c>
       <c r="F35">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="G35" t="e">
         <v>#N/A</v>
@@ -1354,7 +1354,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sleeper Log Creek</t>
+          <t>Saltwater Creek</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1363,16 +1363,16 @@
         </is>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F36">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="G36" t="e">
         <v>#N/A</v>
@@ -1381,7 +1381,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Leichhardt Creek</t>
+          <t>Rollingstone Creek</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1396,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="E37">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F37">
         <v>0.005</v>
@@ -1408,7 +1408,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Saltwater Creek</t>
+          <t>Ollera Creek</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <v>0.002</v>
@@ -1435,7 +1435,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Rollingstone Creek</t>
+          <t>Crystal Creek</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1450,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="E39">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F39">
         <v>0.005</v>
@@ -1462,39 +1462,39 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ollera Creek</t>
+          <t>Ross Lake</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRP</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>0.002</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>0.005</v>
-      </c>
-      <c r="G40" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Crystal Creek</t>
+          <t>Aplins Weir</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRP</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C41">
@@ -1504,19 +1504,19 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <v>0.001</v>
+        <v>4.3</v>
       </c>
       <c r="F41">
-        <v>0.005</v>
-      </c>
-      <c r="G41" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ross Lake</t>
+          <t>Gleesons Weir</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="C42">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>11</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -1543,7 +1543,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aplins Weir</t>
+          <t>Blacks Weir</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1558,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="E43">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -1570,7 +1570,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gleesons Weir</t>
+          <t>Bohle Mid-Field</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1579,16 +1579,16 @@
         </is>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>11</v>
       </c>
       <c r="E44">
-        <v>3.7</v>
+        <v>9.9</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G44">
         <v>35</v>
@@ -1597,7 +1597,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Blacks Weir</t>
+          <t>Bohle Far-Field</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>11</v>
       </c>
       <c r="E45">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G45">
         <v>35</v>
@@ -1624,7 +1624,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bohle Mid-Field</t>
+          <t>Black River</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1633,25 +1633,25 @@
         </is>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>11</v>
       </c>
       <c r="E46">
-        <v>9.9</v>
+        <v>1.01</v>
       </c>
       <c r="F46">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bohle Far-Field</t>
+          <t>Althaus Creek</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1660,25 +1660,25 @@
         </is>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>6.4</v>
+        <v>5.21</v>
       </c>
       <c r="F47">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Black River</t>
+          <t>Bluewater Creek</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1693,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="E48">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -1705,7 +1705,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Althaus Creek</t>
+          <t>Sleeper Log Creek</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1714,13 +1714,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>5.21</v>
+        <v>7.47</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -1732,7 +1732,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bluewater Creek</t>
+          <t>Leichhardt Creek</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <v>1.6</v>
+        <v>2.79</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -1759,7 +1759,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sleeper Log Creek</t>
+          <t>Saltwater Creek</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1768,13 +1768,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>7.47</v>
+        <v>2.605</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -1786,7 +1786,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Leichhardt Creek</t>
+          <t>Rollingstone Creek</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1801,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="E52">
-        <v>2.79</v>
+        <v>0.63</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -1813,7 +1813,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Saltwater Creek</t>
+          <t>Ollera Creek</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>2.605</v>
+        <v>0.54</v>
       </c>
       <c r="F53">
         <v>5</v>
@@ -1840,7 +1840,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Rollingstone Creek</t>
+          <t>Crystal Creek</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1855,7 +1855,7 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -1867,7 +1867,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ollera Creek</t>
+          <t>Paluma Lake</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1876,79 +1876,79 @@
         </is>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>0.54</v>
+        <v>1.8</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Crystal Creek</t>
+          <t>Ross Lake</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>High_DO</t>
         </is>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D56">
         <v>11</v>
       </c>
       <c r="E56">
-        <v>0.74</v>
+        <v>100.45</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Paluma Lake</t>
+          <t>Aplins Weir</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>High_DO</t>
         </is>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>1.8</v>
+        <v>81.188</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ross Lake</t>
+          <t>Gleesons Weir</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1957,13 +1957,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>11</v>
       </c>
       <c r="E58">
-        <v>100.45</v>
+        <v>81.272</v>
       </c>
       <c r="F58">
         <v>110</v>
@@ -1975,7 +1975,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aplins Weir</t>
+          <t>Blacks Weir</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1990,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="E59">
-        <v>81.188</v>
+        <v>77.467</v>
       </c>
       <c r="F59">
         <v>110</v>
@@ -2002,7 +2002,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gleesons Weir</t>
+          <t>Bohle Mid-Field</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>11</v>
       </c>
       <c r="E60">
-        <v>81.272</v>
+        <v>64.57</v>
       </c>
       <c r="F60">
         <v>110</v>
@@ -2029,7 +2029,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Blacks Weir</t>
+          <t>Bohle Far-Field</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2038,13 +2038,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
         <v>11</v>
       </c>
       <c r="E61">
-        <v>77.467</v>
+        <v>48.38</v>
       </c>
       <c r="F61">
         <v>110</v>
@@ -2056,7 +2056,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bohle Mid-Field</t>
+          <t>Black River</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2065,16 +2065,16 @@
         </is>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>11</v>
       </c>
       <c r="E62">
-        <v>64.57</v>
+        <v>98.9</v>
       </c>
       <c r="F62">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G62">
         <v>120</v>
@@ -2083,7 +2083,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bohle Far-Field</t>
+          <t>Althaus Creek</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2092,16 +2092,16 @@
         </is>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>48.38</v>
+        <v>97.4</v>
       </c>
       <c r="F63">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G63">
         <v>120</v>
@@ -2110,7 +2110,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Black River</t>
+          <t>Bluewater Creek</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2125,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="E64">
-        <v>98.9</v>
+        <v>93.8</v>
       </c>
       <c r="F64">
         <v>105</v>
@@ -2137,7 +2137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Althaus Creek</t>
+          <t>Sleeper Log Creek</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2146,13 +2146,13 @@
         </is>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>97.4</v>
+        <v>92.8</v>
       </c>
       <c r="F65">
         <v>105</v>
@@ -2164,7 +2164,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bluewater Creek</t>
+          <t>Leichhardt Creek</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2179,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="E66">
-        <v>93.8</v>
+        <v>90.2</v>
       </c>
       <c r="F66">
         <v>105</v>
@@ -2191,7 +2191,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sleeper Log Creek</t>
+          <t>Saltwater Creek</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>92.8</v>
+        <v>97.4</v>
       </c>
       <c r="F67">
         <v>105</v>
@@ -2218,7 +2218,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Leichhardt Creek</t>
+          <t>Rollingstone Creek</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2233,7 +2233,7 @@
         <v>11</v>
       </c>
       <c r="E68">
-        <v>90.2</v>
+        <v>86.2</v>
       </c>
       <c r="F68">
         <v>105</v>
@@ -2245,7 +2245,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Saltwater Creek</t>
+          <t>Ollera Creek</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>97.4</v>
+        <v>72.9</v>
       </c>
       <c r="F69">
         <v>105</v>
@@ -2272,7 +2272,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rollingstone Creek</t>
+          <t>Crystal Creek</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2287,7 +2287,7 @@
         <v>11</v>
       </c>
       <c r="E70">
-        <v>86.2</v>
+        <v>99.2</v>
       </c>
       <c r="F70">
         <v>105</v>
@@ -2299,7 +2299,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ollera Creek</t>
+          <t>Paluma Lake</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2308,16 +2308,16 @@
         </is>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>72.9</v>
+        <v>87.666</v>
       </c>
       <c r="F71">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G71">
         <v>120</v>
@@ -2326,61 +2326,61 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Crystal Creek</t>
+          <t>Ross Lake</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>High_DO</t>
+          <t>Low_DO</t>
         </is>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D72">
         <v>11</v>
       </c>
       <c r="E72">
-        <v>99.2</v>
+        <v>100.45</v>
       </c>
       <c r="F72">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G72">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Paluma Lake</t>
+          <t>Aplins Weir</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>High_DO</t>
+          <t>Low_DO</t>
         </is>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>87.666</v>
+        <v>81.188</v>
       </c>
       <c r="F73">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G73">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ross Lake</t>
+          <t>Gleesons Weir</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2389,13 +2389,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>11</v>
       </c>
       <c r="E74">
-        <v>100.45</v>
+        <v>81.272</v>
       </c>
       <c r="F74">
         <v>90</v>
@@ -2407,7 +2407,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aplins Weir</t>
+          <t>Blacks Weir</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2422,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="E75">
-        <v>81.188</v>
+        <v>77.467</v>
       </c>
       <c r="F75">
         <v>90</v>
@@ -2434,7 +2434,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gleesons Weir</t>
+          <t>Bohle Mid-Field</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="C76">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>11</v>
       </c>
       <c r="E76">
-        <v>81.272</v>
+        <v>64.57</v>
       </c>
       <c r="F76">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G76">
         <v>70</v>
@@ -2461,7 +2461,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Blacks Weir</t>
+          <t>Bohle Far-Field</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2470,16 +2470,16 @@
         </is>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>11</v>
       </c>
       <c r="E77">
-        <v>77.467</v>
+        <v>48.38</v>
       </c>
       <c r="F77">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G77">
         <v>70</v>
@@ -2488,7 +2488,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bohle Mid-Field</t>
+          <t>Black River</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2497,16 +2497,16 @@
         </is>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>11</v>
       </c>
       <c r="E78">
-        <v>64.57</v>
+        <v>98.9</v>
       </c>
       <c r="F78">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G78">
         <v>70</v>
@@ -2515,7 +2515,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bohle Far-Field</t>
+          <t>Althaus Creek</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>48.38</v>
+        <v>97.4</v>
       </c>
       <c r="F79">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G79">
         <v>70</v>
@@ -2542,7 +2542,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Black River</t>
+          <t>Bluewater Creek</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2557,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="E80">
-        <v>98.9</v>
+        <v>93.8</v>
       </c>
       <c r="F80">
         <v>90</v>
@@ -2569,7 +2569,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Althaus Creek</t>
+          <t>Sleeper Log Creek</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2578,13 +2578,13 @@
         </is>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E81">
-        <v>97.4</v>
+        <v>92.8</v>
       </c>
       <c r="F81">
         <v>90</v>
@@ -2596,7 +2596,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bluewater Creek</t>
+          <t>Leichhardt Creek</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2611,7 +2611,7 @@
         <v>11</v>
       </c>
       <c r="E82">
-        <v>93.8</v>
+        <v>90.2</v>
       </c>
       <c r="F82">
         <v>90</v>
@@ -2623,7 +2623,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sleeper Log Creek</t>
+          <t>Saltwater Creek</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>92.8</v>
+        <v>97.4</v>
       </c>
       <c r="F83">
         <v>90</v>
@@ -2650,7 +2650,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Leichhardt Creek</t>
+          <t>Rollingstone Creek</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2665,7 +2665,7 @@
         <v>11</v>
       </c>
       <c r="E84">
-        <v>90.2</v>
+        <v>86.2</v>
       </c>
       <c r="F84">
         <v>90</v>
@@ -2677,7 +2677,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Saltwater Creek</t>
+          <t>Ollera Creek</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2686,13 +2686,13 @@
         </is>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>97.4</v>
+        <v>72.9</v>
       </c>
       <c r="F85">
         <v>90</v>
@@ -2704,7 +2704,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Rollingstone Creek</t>
+          <t>Crystal Creek</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2719,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="E86">
-        <v>86.2</v>
+        <v>99.2</v>
       </c>
       <c r="F86">
         <v>90</v>
@@ -2731,7 +2731,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ollera Creek</t>
+          <t>Paluma Lake</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>72.9</v>
+        <v>87.666</v>
       </c>
       <c r="F87">
         <v>90</v>
@@ -2755,67 +2755,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Crystal Creek</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Low_DO</t>
-        </is>
-      </c>
-      <c r="C88">
-        <v>11</v>
-      </c>
-      <c r="D88">
-        <v>11</v>
-      </c>
-      <c r="E88">
-        <v>99.2</v>
-      </c>
-      <c r="F88">
-        <v>90</v>
-      </c>
-      <c r="G88">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Paluma Lake</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Low_DO</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>12</v>
-      </c>
-      <c r="D89">
-        <v>10</v>
-      </c>
-      <c r="E89">
-        <v>87.666</v>
-      </c>
-      <c r="F89">
-        <v>90</v>
-      </c>
-      <c r="G89">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:F89">
+  <conditionalFormatting sqref="E2:F87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>E2 &lt;= G2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F89">
+  <conditionalFormatting sqref="E2:F87">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>E2 &gt; G2</formula>
     </cfRule>
